--- a/Source Files/Panel 3/Bottle necks - PANEL 3 - clean.xlsx
+++ b/Source Files/Panel 3/Bottle necks - PANEL 3 - clean.xlsx
@@ -914,8 +914,7 @@
         <v>12001421</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>12.001421000000001</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
